--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H2">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I2">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J2">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.1279607301902222</v>
+        <v>0.2827426165419999</v>
       </c>
       <c r="R2">
-        <v>1.151646571712</v>
+        <v>2.544683548878</v>
       </c>
       <c r="S2">
-        <v>1.187661407574973E-05</v>
+        <v>2.519815121120569E-05</v>
       </c>
       <c r="T2">
-        <v>1.24841200108961E-05</v>
+        <v>2.535648920039442E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H3">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I3">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J3">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.02262066695466666</v>
+        <v>0.017009334736</v>
       </c>
       <c r="R3">
-        <v>0.203586002592</v>
+        <v>0.153084012624</v>
       </c>
       <c r="S3">
-        <v>2.099526402805488E-06</v>
+        <v>1.515879685636546E-06</v>
       </c>
       <c r="T3">
-        <v>2.206920205665949E-06</v>
+        <v>1.525405040860583E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H4">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I4">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J4">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>58.77289326310267</v>
+        <v>68.94560452852532</v>
       </c>
       <c r="R4">
-        <v>528.9560393679241</v>
+        <v>620.5104407567279</v>
       </c>
       <c r="S4">
-        <v>0.005454978026176028</v>
+        <v>0.006144463786553739</v>
       </c>
       <c r="T4">
-        <v>0.005734008017877239</v>
+        <v>0.006183073842999992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H5">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I5">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J5">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.163391519368</v>
+        <v>0.7091178909139999</v>
       </c>
       <c r="R5">
-        <v>0.9803491162080001</v>
+        <v>4.254707345483999</v>
       </c>
       <c r="S5">
-        <v>1.516510585629969E-05</v>
+        <v>6.319691053424189E-05</v>
       </c>
       <c r="T5">
-        <v>1.062721525851703E-05</v>
+        <v>4.23960145866358E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H6">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I6">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J6">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>64.01896999055289</v>
+        <v>39.31745161534732</v>
       </c>
       <c r="R6">
-        <v>576.1707299149761</v>
+        <v>353.8570645381259</v>
       </c>
       <c r="S6">
-        <v>0.005941890132812781</v>
+        <v>0.003503989257649166</v>
       </c>
       <c r="T6">
-        <v>0.006245826380858589</v>
+        <v>0.003526007325901266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>235.023953</v>
       </c>
       <c r="I7">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J7">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>9.228398310952889</v>
+        <v>27.11808213426967</v>
       </c>
       <c r="R7">
-        <v>83.05558479857599</v>
+        <v>244.062739208427</v>
       </c>
       <c r="S7">
-        <v>0.0008565293829877116</v>
+        <v>0.002416775873882874</v>
       </c>
       <c r="T7">
-        <v>0.0009003420959775832</v>
+        <v>0.002431962203585519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.023953</v>
       </c>
       <c r="I8">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J8">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
         <v>1.631379599090667</v>
@@ -948,10 +948,10 @@
         <v>14.682416391816</v>
       </c>
       <c r="S8">
-        <v>0.0001514157185618472</v>
+        <v>0.0001453892954784069</v>
       </c>
       <c r="T8">
-        <v>0.0001591608508962047</v>
+        <v>0.0001463028803086059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.023953</v>
       </c>
       <c r="I9">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J9">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>4238.64155911542</v>
+        <v>6612.630912410384</v>
       </c>
       <c r="R9">
-        <v>38147.77403203878</v>
+        <v>59513.67821169346</v>
       </c>
       <c r="S9">
-        <v>0.3934074925034667</v>
+        <v>0.589320689157796</v>
       </c>
       <c r="T9">
-        <v>0.4135308530086214</v>
+        <v>0.5930238121419563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>235.023953</v>
       </c>
       <c r="I10">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J10">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>11.783630955514</v>
+        <v>68.01209327363433</v>
       </c>
       <c r="R10">
-        <v>70.70178573308401</v>
+        <v>408.072559641806</v>
       </c>
       <c r="S10">
-        <v>0.001093692080856785</v>
+        <v>0.006061268836864888</v>
       </c>
       <c r="T10">
-        <v>0.0007664240052087892</v>
+        <v>0.004066237413330659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>235.023953</v>
       </c>
       <c r="I11">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J11">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>4616.983301451228</v>
+        <v>3770.969849735339</v>
       </c>
       <c r="R11">
-        <v>41552.84971306105</v>
+        <v>33938.72864761805</v>
       </c>
       <c r="S11">
-        <v>0.4285231006731712</v>
+        <v>0.3360705564964371</v>
       </c>
       <c r="T11">
-        <v>0.4504426751702353</v>
+        <v>0.3381823279393166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H12">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I12">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J12">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>0.114461195056</v>
+        <v>0.8074315262736667</v>
       </c>
       <c r="R12">
-        <v>1.030150755504</v>
+        <v>7.266883736463</v>
       </c>
       <c r="S12">
-        <v>1.062366116783148E-05</v>
+        <v>7.195866665086262E-05</v>
       </c>
       <c r="T12">
-        <v>1.116707675507528E-05</v>
+        <v>7.241083437089491E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H13">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I13">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J13">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>0.020234243496</v>
+        <v>0.04857376392266666</v>
       </c>
       <c r="R13">
-        <v>0.182108191464</v>
+        <v>0.437163875304</v>
       </c>
       <c r="S13">
-        <v>1.878031648924616E-06</v>
+        <v>4.328916040992171E-06</v>
       </c>
       <c r="T13">
-        <v>1.974095675745527E-06</v>
+        <v>4.356117713668567E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H14">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I14">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J14">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>52.572500874237</v>
+        <v>196.8888007586876</v>
       </c>
       <c r="R14">
-        <v>473.152507868133</v>
+        <v>1771.999206828188</v>
       </c>
       <c r="S14">
-        <v>0.004879491567077965</v>
+        <v>0.01754681990987868</v>
       </c>
       <c r="T14">
-        <v>0.005129084596588725</v>
+        <v>0.01765707911730622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H15">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I15">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J15">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>0.146154125106</v>
+        <v>2.025036579102333</v>
       </c>
       <c r="R15">
-        <v>0.8769247506360001</v>
+        <v>12.150219474614</v>
       </c>
       <c r="S15">
-        <v>1.356522533813615E-05</v>
+        <v>0.0001804721854544466</v>
       </c>
       <c r="T15">
-        <v>9.5060707828015E-06</v>
+        <v>0.0001210708141003675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H16">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I16">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J16">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>57.265129704088</v>
+        <v>112.2793244090079</v>
       </c>
       <c r="R16">
-        <v>515.386167336792</v>
+        <v>1010.513919681071</v>
       </c>
       <c r="S16">
-        <v>0.005315035671351417</v>
+        <v>0.01000638470759123</v>
       </c>
       <c r="T16">
-        <v>0.005586907409817148</v>
+        <v>0.01006926197268773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H17">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I17">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J17">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>1.620771153386667</v>
+        <v>0.3562601483705</v>
       </c>
       <c r="R17">
-        <v>9.72462692032</v>
+        <v>2.137560890223</v>
       </c>
       <c r="S17">
-        <v>0.0001504311007389991</v>
+        <v>3.175006724829163E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001054172456346494</v>
+        <v>2.129971707170554E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H18">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I18">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J18">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>0.28651699952</v>
+        <v>0.021432029564</v>
       </c>
       <c r="R18">
-        <v>1.71910199712</v>
+        <v>0.128592177384</v>
       </c>
       <c r="S18">
-        <v>2.659293850841771E-05</v>
+        <v>1.910032270060999E-06</v>
       </c>
       <c r="T18">
-        <v>1.863547043874173E-05</v>
+        <v>1.281356245074277E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H19">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I19">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J19">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>744.4269023809401</v>
+        <v>86.87254719232467</v>
       </c>
       <c r="R19">
-        <v>4466.56141428564</v>
+        <v>521.2352831539481</v>
       </c>
       <c r="S19">
-        <v>0.06909362750619739</v>
+        <v>0.007742121110100255</v>
       </c>
       <c r="T19">
-        <v>0.04841857745392071</v>
+        <v>0.005193846926068708</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H20">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I20">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J20">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>2.069543217720001</v>
+        <v>0.8934997069735001</v>
       </c>
       <c r="R20">
-        <v>8.278172870880002</v>
+        <v>3.573998827894</v>
       </c>
       <c r="S20">
-        <v>0.0001920836656168432</v>
+        <v>7.962910225152355E-05</v>
       </c>
       <c r="T20">
-        <v>8.973734314806309E-05</v>
+        <v>3.561309724412469E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H21">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I21">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J21">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>810.8745524972267</v>
+        <v>49.54060805316517</v>
       </c>
       <c r="R21">
-        <v>4865.24731498336</v>
+        <v>297.243648318991</v>
       </c>
       <c r="S21">
-        <v>0.07526093442526878</v>
+        <v>0.004415081631789656</v>
       </c>
       <c r="T21">
-        <v>0.0527404264944328</v>
+        <v>0.00296188316296129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H22">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I22">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J22">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N22">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O22">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P22">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q22">
-        <v>0.1074830773582222</v>
+        <v>0.4693764295556666</v>
       </c>
       <c r="R22">
-        <v>0.9673476962239999</v>
+        <v>4.224387866001</v>
       </c>
       <c r="S22">
-        <v>9.975990505523871E-06</v>
+        <v>4.183104192629773E-05</v>
       </c>
       <c r="T22">
-        <v>1.048627680449894E-05</v>
+        <v>4.209389625274268E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H23">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I23">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J23">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.062472</v>
       </c>
       <c r="O23">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P23">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q23">
-        <v>0.01900066444266666</v>
+        <v>0.02823692057866666</v>
       </c>
       <c r="R23">
-        <v>0.171005979984</v>
+        <v>0.254132285208</v>
       </c>
       <c r="S23">
-        <v>1.763537598081132E-06</v>
+        <v>2.516487267402633E-06</v>
       </c>
       <c r="T23">
-        <v>1.853745089109708E-06</v>
+        <v>2.532300155038707E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H24">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I24">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J24">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N24">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O24">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P24">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q24">
-        <v>49.36742251918866</v>
+        <v>114.4554792727862</v>
       </c>
       <c r="R24">
-        <v>444.306802672698</v>
+        <v>1030.099313455076</v>
       </c>
       <c r="S24">
-        <v>0.004582013749869038</v>
+        <v>0.01020032462364326</v>
       </c>
       <c r="T24">
-        <v>0.004816390360089234</v>
+        <v>0.01026442055181047</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H25">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I25">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J25">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N25">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O25">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P25">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q25">
-        <v>0.137243850436</v>
+        <v>1.177195103596333</v>
       </c>
       <c r="R25">
-        <v>0.8234631026160001</v>
+        <v>7.063170621578</v>
       </c>
       <c r="S25">
-        <v>1.273822244899037E-05</v>
+        <v>0.0001049121656589927</v>
       </c>
       <c r="T25">
-        <v>8.926533929867705E-06</v>
+        <v>7.038093583996058E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H26">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I26">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J26">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N26">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O26">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P26">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q26">
-        <v>53.77396560381688</v>
+        <v>65.27026340826855</v>
       </c>
       <c r="R26">
-        <v>483.965690434352</v>
+        <v>587.4323706744169</v>
       </c>
       <c r="S26">
-        <v>0.00499100494229576</v>
+        <v>0.005816915706134684</v>
       </c>
       <c r="T26">
-        <v>0.005246302041742693</v>
+        <v>0.005853467543944918</v>
       </c>
     </row>
   </sheetData>
